--- a/Data/2020_10_27.xlsx
+++ b/Data/2020_10_27.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
-    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-26 08:00 Uhr</t>
+    <t xml:space="preserve">Daten des Coronavirussituationsberichts, Stand 2020-10-27 08:00 Uhr</t>
   </si>
   <si>
     <t xml:space="preserve">Quelle: BAG/MT</t>
@@ -501,7 +501,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="50000" formatCode="0.00"/>
+    <numFmt numFmtId="166" formatCode="0.00"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -540,7 +540,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="50000" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -832,7 +832,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -5020,10 +5020,10 @@
         <v>40237</v>
       </c>
       <c r="D189" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E189" t="n">
-        <v>4389</v>
+        <v>4388</v>
       </c>
       <c r="F189" t="n">
         <v>2</v>
@@ -5046,7 +5046,7 @@
         <v>7</v>
       </c>
       <c r="E190" t="n">
-        <v>4396</v>
+        <v>4395</v>
       </c>
       <c r="F190" t="n">
         <v>1</v>
@@ -5069,7 +5069,7 @@
         <v>5</v>
       </c>
       <c r="E191" t="n">
-        <v>4401</v>
+        <v>4400</v>
       </c>
       <c r="F191" t="n">
         <v>0</v>
@@ -5092,7 +5092,7 @@
         <v>6</v>
       </c>
       <c r="E192" t="n">
-        <v>4407</v>
+        <v>4406</v>
       </c>
       <c r="F192" t="n">
         <v>0</v>
@@ -5115,7 +5115,7 @@
         <v>5</v>
       </c>
       <c r="E193" t="n">
-        <v>4412</v>
+        <v>4411</v>
       </c>
       <c r="F193" t="n">
         <v>2</v>
@@ -5138,7 +5138,7 @@
         <v>9</v>
       </c>
       <c r="E194" t="n">
-        <v>4421</v>
+        <v>4420</v>
       </c>
       <c r="F194" t="n">
         <v>0</v>
@@ -5161,7 +5161,7 @@
         <v>2</v>
       </c>
       <c r="E195" t="n">
-        <v>4423</v>
+        <v>4422</v>
       </c>
       <c r="F195" t="n">
         <v>0</v>
@@ -5184,7 +5184,7 @@
         <v>7</v>
       </c>
       <c r="E196" t="n">
-        <v>4430</v>
+        <v>4429</v>
       </c>
       <c r="F196" t="n">
         <v>1</v>
@@ -5204,7 +5204,7 @@
         <v>42674</v>
       </c>
       <c r="D197" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E197" t="n">
         <v>4435</v>
@@ -5572,10 +5572,10 @@
         <v>49108</v>
       </c>
       <c r="D213" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E213" t="n">
-        <v>4610</v>
+        <v>4611</v>
       </c>
       <c r="F213" t="n">
         <v>5</v>
@@ -5598,7 +5598,7 @@
         <v>9</v>
       </c>
       <c r="E214" t="n">
-        <v>4619</v>
+        <v>4620</v>
       </c>
       <c r="F214" t="n">
         <v>4</v>
@@ -5621,7 +5621,7 @@
         <v>16</v>
       </c>
       <c r="E215" t="n">
-        <v>4635</v>
+        <v>4636</v>
       </c>
       <c r="F215" t="n">
         <v>2</v>
@@ -5644,7 +5644,7 @@
         <v>8</v>
       </c>
       <c r="E216" t="n">
-        <v>4643</v>
+        <v>4644</v>
       </c>
       <c r="F216" t="n">
         <v>1</v>
@@ -5667,7 +5667,7 @@
         <v>11</v>
       </c>
       <c r="E217" t="n">
-        <v>4654</v>
+        <v>4655</v>
       </c>
       <c r="F217" t="n">
         <v>0</v>
@@ -5690,7 +5690,7 @@
         <v>16</v>
       </c>
       <c r="E218" t="n">
-        <v>4670</v>
+        <v>4671</v>
       </c>
       <c r="F218" t="n">
         <v>3</v>
@@ -5710,10 +5710,10 @@
         <v>51357</v>
       </c>
       <c r="D219" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E219" t="n">
-        <v>4675</v>
+        <v>4677</v>
       </c>
       <c r="F219" t="n">
         <v>1</v>
@@ -5727,16 +5727,16 @@
         <v>44097</v>
       </c>
       <c r="B220" t="n">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C220" t="n">
-        <v>51742</v>
+        <v>51743</v>
       </c>
       <c r="D220" t="n">
         <v>11</v>
       </c>
       <c r="E220" t="n">
-        <v>4686</v>
+        <v>4688</v>
       </c>
       <c r="F220" t="n">
         <v>1</v>
@@ -5753,13 +5753,13 @@
         <v>309</v>
       </c>
       <c r="C221" t="n">
-        <v>52051</v>
+        <v>52052</v>
       </c>
       <c r="D221" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E221" t="n">
-        <v>4697</v>
+        <v>4700</v>
       </c>
       <c r="F221" t="n">
         <v>3</v>
@@ -5776,13 +5776,13 @@
         <v>359</v>
       </c>
       <c r="C222" t="n">
-        <v>52410</v>
+        <v>52411</v>
       </c>
       <c r="D222" t="n">
         <v>10</v>
       </c>
       <c r="E222" t="n">
-        <v>4707</v>
+        <v>4710</v>
       </c>
       <c r="F222" t="n">
         <v>1</v>
@@ -5799,13 +5799,13 @@
         <v>222</v>
       </c>
       <c r="C223" t="n">
-        <v>52632</v>
+        <v>52633</v>
       </c>
       <c r="D223" t="n">
         <v>7</v>
       </c>
       <c r="E223" t="n">
-        <v>4714</v>
+        <v>4717</v>
       </c>
       <c r="F223" t="n">
         <v>2</v>
@@ -5822,13 +5822,13 @@
         <v>120</v>
       </c>
       <c r="C224" t="n">
-        <v>52752</v>
+        <v>52753</v>
       </c>
       <c r="D224" t="n">
         <v>17</v>
       </c>
       <c r="E224" t="n">
-        <v>4731</v>
+        <v>4734</v>
       </c>
       <c r="F224" t="n">
         <v>1</v>
@@ -5845,13 +5845,13 @@
         <v>367</v>
       </c>
       <c r="C225" t="n">
-        <v>53119</v>
+        <v>53120</v>
       </c>
       <c r="D225" t="n">
         <v>13</v>
       </c>
       <c r="E225" t="n">
-        <v>4744</v>
+        <v>4747</v>
       </c>
       <c r="F225" t="n">
         <v>3</v>
@@ -5868,13 +5868,13 @@
         <v>448</v>
       </c>
       <c r="C226" t="n">
-        <v>53567</v>
+        <v>53568</v>
       </c>
       <c r="D226" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E226" t="n">
-        <v>4764</v>
+        <v>4768</v>
       </c>
       <c r="F226" t="n">
         <v>1</v>
@@ -5891,13 +5891,13 @@
         <v>538</v>
       </c>
       <c r="C227" t="n">
-        <v>54105</v>
+        <v>54106</v>
       </c>
       <c r="D227" t="n">
         <v>16</v>
       </c>
       <c r="E227" t="n">
-        <v>4780</v>
+        <v>4784</v>
       </c>
       <c r="F227" t="n">
         <v>0</v>
@@ -5914,13 +5914,13 @@
         <v>597</v>
       </c>
       <c r="C228" t="n">
-        <v>54702</v>
+        <v>54703</v>
       </c>
       <c r="D228" t="n">
         <v>10</v>
       </c>
       <c r="E228" t="n">
-        <v>4790</v>
+        <v>4794</v>
       </c>
       <c r="F228" t="n">
         <v>4</v>
@@ -5937,13 +5937,13 @@
         <v>674</v>
       </c>
       <c r="C229" t="n">
-        <v>55376</v>
+        <v>55377</v>
       </c>
       <c r="D229" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E229" t="n">
-        <v>4807</v>
+        <v>4812</v>
       </c>
       <c r="F229" t="n">
         <v>0</v>
@@ -5960,13 +5960,13 @@
         <v>510</v>
       </c>
       <c r="C230" t="n">
-        <v>55886</v>
+        <v>55887</v>
       </c>
       <c r="D230" t="n">
         <v>11</v>
       </c>
       <c r="E230" t="n">
-        <v>4818</v>
+        <v>4823</v>
       </c>
       <c r="F230" t="n">
         <v>0</v>
@@ -5983,13 +5983,13 @@
         <v>314</v>
       </c>
       <c r="C231" t="n">
-        <v>56200</v>
+        <v>56201</v>
       </c>
       <c r="D231" t="n">
         <v>10</v>
       </c>
       <c r="E231" t="n">
-        <v>4828</v>
+        <v>4833</v>
       </c>
       <c r="F231" t="n">
         <v>1</v>
@@ -6006,13 +6006,13 @@
         <v>1020</v>
       </c>
       <c r="C232" t="n">
-        <v>57220</v>
+        <v>57221</v>
       </c>
       <c r="D232" t="n">
         <v>10</v>
       </c>
       <c r="E232" t="n">
-        <v>4838</v>
+        <v>4843</v>
       </c>
       <c r="F232" t="n">
         <v>2</v>
@@ -6029,13 +6029,13 @@
         <v>1096</v>
       </c>
       <c r="C233" t="n">
-        <v>58316</v>
+        <v>58317</v>
       </c>
       <c r="D233" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E233" t="n">
-        <v>4861</v>
+        <v>4867</v>
       </c>
       <c r="F233" t="n">
         <v>1</v>
@@ -6052,13 +6052,13 @@
         <v>1380</v>
       </c>
       <c r="C234" t="n">
-        <v>59696</v>
+        <v>59697</v>
       </c>
       <c r="D234" t="n">
         <v>29</v>
       </c>
       <c r="E234" t="n">
-        <v>4890</v>
+        <v>4896</v>
       </c>
       <c r="F234" t="n">
         <v>2</v>
@@ -6075,13 +6075,13 @@
         <v>1474</v>
       </c>
       <c r="C235" t="n">
-        <v>61170</v>
+        <v>61171</v>
       </c>
       <c r="D235" t="n">
         <v>38</v>
       </c>
       <c r="E235" t="n">
-        <v>4928</v>
+        <v>4934</v>
       </c>
       <c r="F235" t="n">
         <v>3</v>
@@ -6098,13 +6098,13 @@
         <v>1725</v>
       </c>
       <c r="C236" t="n">
-        <v>62895</v>
+        <v>62896</v>
       </c>
       <c r="D236" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E236" t="n">
-        <v>4960</v>
+        <v>4967</v>
       </c>
       <c r="F236" t="n">
         <v>3</v>
@@ -6121,13 +6121,13 @@
         <v>1252</v>
       </c>
       <c r="C237" t="n">
-        <v>64147</v>
+        <v>64148</v>
       </c>
       <c r="D237" t="n">
         <v>27</v>
       </c>
       <c r="E237" t="n">
-        <v>4987</v>
+        <v>4994</v>
       </c>
       <c r="F237" t="n">
         <v>3</v>
@@ -6144,13 +6144,13 @@
         <v>807</v>
       </c>
       <c r="C238" t="n">
-        <v>64954</v>
+        <v>64955</v>
       </c>
       <c r="D238" t="n">
         <v>35</v>
       </c>
       <c r="E238" t="n">
-        <v>5022</v>
+        <v>5029</v>
       </c>
       <c r="F238" t="n">
         <v>3</v>
@@ -6167,13 +6167,13 @@
         <v>2563</v>
       </c>
       <c r="C239" t="n">
-        <v>67517</v>
+        <v>67518</v>
       </c>
       <c r="D239" t="n">
         <v>54</v>
       </c>
       <c r="E239" t="n">
-        <v>5076</v>
+        <v>5083</v>
       </c>
       <c r="F239" t="n">
         <v>5</v>
@@ -6190,13 +6190,13 @@
         <v>2692</v>
       </c>
       <c r="C240" t="n">
-        <v>70209</v>
+        <v>70210</v>
       </c>
       <c r="D240" t="n">
         <v>46</v>
       </c>
       <c r="E240" t="n">
-        <v>5122</v>
+        <v>5129</v>
       </c>
       <c r="F240" t="n">
         <v>5</v>
@@ -6213,13 +6213,13 @@
         <v>2999</v>
       </c>
       <c r="C241" t="n">
-        <v>73208</v>
+        <v>73209</v>
       </c>
       <c r="D241" t="n">
         <v>69</v>
       </c>
       <c r="E241" t="n">
-        <v>5191</v>
+        <v>5198</v>
       </c>
       <c r="F241" t="n">
         <v>4</v>
@@ -6236,13 +6236,13 @@
         <v>3394</v>
       </c>
       <c r="C242" t="n">
-        <v>76602</v>
+        <v>76603</v>
       </c>
       <c r="D242" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="E242" t="n">
-        <v>5252</v>
+        <v>5262</v>
       </c>
       <c r="F242" t="n">
         <v>5</v>
@@ -6259,13 +6259,13 @@
         <v>3690</v>
       </c>
       <c r="C243" t="n">
-        <v>80292</v>
+        <v>80293</v>
       </c>
       <c r="D243" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="E243" t="n">
-        <v>5309</v>
+        <v>5324</v>
       </c>
       <c r="F243" t="n">
         <v>8</v>
@@ -6282,13 +6282,13 @@
         <v>2379</v>
       </c>
       <c r="C244" t="n">
-        <v>82671</v>
+        <v>82672</v>
       </c>
       <c r="D244" t="n">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="E244" t="n">
-        <v>5383</v>
+        <v>5402</v>
       </c>
       <c r="F244" t="n">
         <v>6</v>
@@ -6302,16 +6302,16 @@
         <v>44122</v>
       </c>
       <c r="B245" t="n">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C245" t="n">
-        <v>84461</v>
+        <v>84463</v>
       </c>
       <c r="D245" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E245" t="n">
-        <v>5430</v>
+        <v>5452</v>
       </c>
       <c r="F245" t="n">
         <v>4</v>
@@ -6328,13 +6328,13 @@
         <v>5407</v>
       </c>
       <c r="C246" t="n">
-        <v>89868</v>
+        <v>89870</v>
       </c>
       <c r="D246" t="n">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E246" t="n">
-        <v>5538</v>
+        <v>5570</v>
       </c>
       <c r="F246" t="n">
         <v>11</v>
@@ -6348,22 +6348,22 @@
         <v>44124</v>
       </c>
       <c r="B247" t="n">
-        <v>5653</v>
+        <v>5660</v>
       </c>
       <c r="C247" t="n">
-        <v>95521</v>
+        <v>95530</v>
       </c>
       <c r="D247" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="E247" t="n">
-        <v>5630</v>
+        <v>5666</v>
       </c>
       <c r="F247" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G247" t="n">
-        <v>1870</v>
+        <v>1871</v>
       </c>
     </row>
     <row r="248">
@@ -6371,22 +6371,22 @@
         <v>44125</v>
       </c>
       <c r="B248" t="n">
-        <v>6450</v>
+        <v>6457</v>
       </c>
       <c r="C248" t="n">
-        <v>101971</v>
+        <v>101987</v>
       </c>
       <c r="D248" t="n">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E248" t="n">
-        <v>5696</v>
+        <v>5744</v>
       </c>
       <c r="F248" t="n">
         <v>9</v>
       </c>
       <c r="G248" t="n">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="249">
@@ -6394,22 +6394,22 @@
         <v>44126</v>
       </c>
       <c r="B249" t="n">
-        <v>6747</v>
+        <v>6771</v>
       </c>
       <c r="C249" t="n">
-        <v>108718</v>
+        <v>108758</v>
       </c>
       <c r="D249" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="E249" t="n">
-        <v>5759</v>
+        <v>5825</v>
       </c>
       <c r="F249" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="G249" t="n">
-        <v>1892</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="250">
@@ -6417,22 +6417,22 @@
         <v>44127</v>
       </c>
       <c r="B250" t="n">
-        <v>7158</v>
+        <v>7406</v>
       </c>
       <c r="C250" t="n">
-        <v>115876</v>
+        <v>116164</v>
       </c>
       <c r="D250" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="E250" t="n">
-        <v>5808</v>
+        <v>5898</v>
       </c>
       <c r="F250" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="G250" t="n">
-        <v>1900</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="251">
@@ -6440,22 +6440,22 @@
         <v>44128</v>
       </c>
       <c r="B251" t="n">
-        <v>3819</v>
+        <v>4442</v>
       </c>
       <c r="C251" t="n">
-        <v>119695</v>
+        <v>120606</v>
       </c>
       <c r="D251" t="n">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="E251" t="n">
-        <v>5832</v>
+        <v>5951</v>
       </c>
       <c r="F251" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="G251" t="n">
-        <v>1907</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="252">
@@ -6463,22 +6463,22 @@
         <v>44129</v>
       </c>
       <c r="B252" t="n">
-        <v>1391</v>
+        <v>2916</v>
       </c>
       <c r="C252" t="n">
-        <v>121086</v>
+        <v>123522</v>
       </c>
       <c r="D252" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="E252" t="n">
-        <v>5845</v>
+        <v>5995</v>
       </c>
       <c r="F252" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G252" t="n">
-        <v>1914</v>
+        <v>1929</v>
       </c>
     </row>
     <row r="253">
@@ -6486,22 +6486,45 @@
         <v>44130</v>
       </c>
       <c r="B253" t="n">
-        <v>7</v>
+        <v>3506</v>
       </c>
       <c r="C253" t="n">
-        <v>121093</v>
+        <v>127028</v>
       </c>
       <c r="D253" t="n">
+        <v>18</v>
+      </c>
+      <c r="E253" t="n">
+        <v>6013</v>
+      </c>
+      <c r="F253" t="n">
         <v>1</v>
       </c>
-      <c r="E253" t="n">
-        <v>5846</v>
-      </c>
-      <c r="F253" t="n">
-        <v>0</v>
-      </c>
       <c r="G253" t="n">
-        <v>1914</v>
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>44131</v>
+      </c>
+      <c r="B254" t="n">
+        <v>14</v>
+      </c>
+      <c r="C254" t="n">
+        <v>127042</v>
+      </c>
+      <c r="D254" t="n">
+        <v>0</v>
+      </c>
+      <c r="E254" t="n">
+        <v>6013</v>
+      </c>
+      <c r="F254" t="n">
+        <v>0</v>
+      </c>
+      <c r="G254" t="n">
+        <v>1930</v>
       </c>
     </row>
   </sheetData>
@@ -6516,7 +6539,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -6591,31 +6614,31 @@
         <v>25</v>
       </c>
       <c r="B8" t="n">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="C8" t="n">
         <v>0.9</v>
       </c>
       <c r="D8" t="n">
-        <v>115</v>
+        <v>119.9</v>
       </c>
       <c r="E8" t="n">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="F8" t="n">
         <v>0.7</v>
       </c>
       <c r="G8" t="n">
-        <v>100</v>
+        <v>103.5</v>
       </c>
       <c r="H8" t="n">
         <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>940</v>
+        <v>977</v>
       </c>
       <c r="K8" t="n">
         <v>0.8</v>
@@ -6626,31 +6649,31 @@
         <v>26</v>
       </c>
       <c r="B9" t="n">
-        <v>4129</v>
+        <v>4339</v>
       </c>
       <c r="C9" t="n">
         <v>6.9</v>
       </c>
       <c r="D9" t="n">
-        <v>948.6</v>
+        <v>996.9</v>
       </c>
       <c r="E9" t="n">
-        <v>4241</v>
+        <v>4456</v>
       </c>
       <c r="F9" t="n">
         <v>6.9</v>
       </c>
       <c r="G9" t="n">
-        <v>1034.6</v>
+        <v>1087.1</v>
       </c>
       <c r="H9" t="n">
         <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="J9" t="n">
-        <v>8372</v>
+        <v>8797</v>
       </c>
       <c r="K9" t="n">
         <v>6.9</v>
@@ -6661,34 +6684,34 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>11875</v>
+        <v>12484</v>
       </c>
       <c r="C10" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="D10" t="n">
-        <v>2197.6</v>
+        <v>2310.3</v>
       </c>
       <c r="E10" t="n">
-        <v>12022</v>
+        <v>12623</v>
       </c>
       <c r="F10" t="n">
         <v>19.7</v>
       </c>
       <c r="G10" t="n">
-        <v>2325.7</v>
+        <v>2442</v>
       </c>
       <c r="H10" t="n">
         <v>8</v>
       </c>
       <c r="I10" t="n">
-        <v>18.2</v>
+        <v>17.8</v>
       </c>
       <c r="J10" t="n">
-        <v>23905</v>
+        <v>25115</v>
       </c>
       <c r="K10" t="n">
-        <v>19.7</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="11">
@@ -6696,34 +6719,34 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>10713</v>
+        <v>11236</v>
       </c>
       <c r="C11" t="n">
         <v>17.9</v>
       </c>
       <c r="D11" t="n">
-        <v>1739.1</v>
+        <v>1824.1</v>
       </c>
       <c r="E11" t="n">
-        <v>10395</v>
+        <v>10930</v>
       </c>
       <c r="F11" t="n">
         <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>1720.8</v>
+        <v>1809.3</v>
       </c>
       <c r="H11" t="n">
         <v>12</v>
       </c>
       <c r="I11" t="n">
-        <v>27.3</v>
+        <v>26.7</v>
       </c>
       <c r="J11" t="n">
-        <v>21120</v>
+        <v>22178</v>
       </c>
       <c r="K11" t="n">
-        <v>17.4</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="12">
@@ -6731,34 +6754,34 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>9205</v>
+        <v>9679</v>
       </c>
       <c r="C12" t="n">
         <v>15.4</v>
       </c>
       <c r="D12" t="n">
-        <v>1512.9</v>
+        <v>1590.8</v>
       </c>
       <c r="E12" t="n">
-        <v>9960</v>
+        <v>10506</v>
       </c>
       <c r="F12" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="G12" t="n">
-        <v>1655.7</v>
+        <v>1746.5</v>
       </c>
       <c r="H12" t="n">
         <v>9</v>
       </c>
       <c r="I12" t="n">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="J12" t="n">
-        <v>19174</v>
+        <v>20194</v>
       </c>
       <c r="K12" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
     </row>
     <row r="13">
@@ -6766,34 +6789,34 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>10136</v>
+        <v>10651</v>
       </c>
       <c r="C13" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>1560.1</v>
+        <v>1639.4</v>
       </c>
       <c r="E13" t="n">
-        <v>10246</v>
+        <v>10783</v>
       </c>
       <c r="F13" t="n">
         <v>16.8</v>
       </c>
       <c r="G13" t="n">
-        <v>1604.6</v>
+        <v>1688.7</v>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I13" t="n">
-        <v>9.1</v>
+        <v>11.1</v>
       </c>
       <c r="J13" t="n">
-        <v>20386</v>
+        <v>21439</v>
       </c>
       <c r="K13" t="n">
-        <v>16.8</v>
+        <v>16.9</v>
       </c>
     </row>
     <row r="14">
@@ -6801,31 +6824,31 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>6173</v>
+        <v>6434</v>
       </c>
       <c r="C14" t="n">
-        <v>10.3</v>
+        <v>10.2</v>
       </c>
       <c r="D14" t="n">
-        <v>1341.8</v>
+        <v>1398.5</v>
       </c>
       <c r="E14" t="n">
-        <v>5439</v>
+        <v>5695</v>
       </c>
       <c r="F14" t="n">
         <v>8.9</v>
       </c>
       <c r="G14" t="n">
-        <v>1142.2</v>
+        <v>1196</v>
       </c>
       <c r="H14" t="n">
         <v>5</v>
       </c>
       <c r="I14" t="n">
-        <v>11.4</v>
+        <v>11.1</v>
       </c>
       <c r="J14" t="n">
-        <v>11617</v>
+        <v>12134</v>
       </c>
       <c r="K14" t="n">
         <v>9.6</v>
@@ -6836,31 +6859,31 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>4083</v>
+        <v>4272</v>
       </c>
       <c r="C15" t="n">
         <v>6.8</v>
       </c>
       <c r="D15" t="n">
-        <v>1237.9</v>
+        <v>1295.2</v>
       </c>
       <c r="E15" t="n">
-        <v>3573</v>
+        <v>3748</v>
       </c>
       <c r="F15" t="n">
         <v>5.8</v>
       </c>
       <c r="G15" t="n">
-        <v>942.5</v>
+        <v>988.7</v>
       </c>
       <c r="H15" t="n">
         <v>3</v>
       </c>
       <c r="I15" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="J15" t="n">
-        <v>7659</v>
+        <v>8023</v>
       </c>
       <c r="K15" t="n">
         <v>6.3</v>
@@ -6871,22 +6894,22 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>3047</v>
+        <v>3154</v>
       </c>
       <c r="C16" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
-        <v>1805.5</v>
+        <v>1868.9</v>
       </c>
       <c r="E16" t="n">
-        <v>4813</v>
+        <v>4971</v>
       </c>
       <c r="F16" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="G16" t="n">
-        <v>1741.7</v>
+        <v>1798.8</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -6895,10 +6918,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>7860</v>
+        <v>8125</v>
       </c>
       <c r="K16" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="17">
@@ -6949,7 +6972,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="15.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="15.71" hidden="0" customWidth="1"/>
@@ -7004,16 +7027,16 @@
         <v>41</v>
       </c>
       <c r="B8" t="n">
-        <v>5449</v>
+        <v>5741</v>
       </c>
       <c r="C8" t="n">
-        <v>803.4</v>
+        <v>846.5</v>
       </c>
       <c r="E8" t="n">
-        <v>2416</v>
+        <v>2596</v>
       </c>
       <c r="F8" t="n">
-        <v>356.2</v>
+        <v>382.8</v>
       </c>
     </row>
     <row r="9">
@@ -7021,16 +7044,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="n">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C9" t="n">
-        <v>1467.9</v>
+        <v>1486.5</v>
       </c>
       <c r="E9" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="F9" t="n">
-        <v>1009.6</v>
+        <v>941.5</v>
       </c>
     </row>
     <row r="10">
@@ -7038,16 +7061,16 @@
         <v>43</v>
       </c>
       <c r="B10" t="n">
-        <v>547</v>
+        <v>572</v>
       </c>
       <c r="C10" t="n">
-        <v>990.3</v>
+        <v>1035.6</v>
       </c>
       <c r="E10" t="n">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="F10" t="n">
-        <v>568.5</v>
+        <v>595.6</v>
       </c>
     </row>
     <row r="11">
@@ -7055,16 +7078,16 @@
         <v>44</v>
       </c>
       <c r="B11" t="n">
-        <v>9740</v>
+        <v>10272</v>
       </c>
       <c r="C11" t="n">
-        <v>941.1</v>
+        <v>992.5</v>
       </c>
       <c r="E11" t="n">
-        <v>5220</v>
+        <v>5477</v>
       </c>
       <c r="F11" t="n">
-        <v>504.4</v>
+        <v>529.2</v>
       </c>
     </row>
     <row r="12">
@@ -7072,16 +7095,16 @@
         <v>45</v>
       </c>
       <c r="B12" t="n">
-        <v>2212</v>
+        <v>2333</v>
       </c>
       <c r="C12" t="n">
-        <v>767.7</v>
+        <v>809.7</v>
       </c>
       <c r="E12" t="n">
-        <v>887</v>
+        <v>951</v>
       </c>
       <c r="F12" t="n">
-        <v>307.8</v>
+        <v>330.1</v>
       </c>
     </row>
     <row r="13">
@@ -7089,16 +7112,16 @@
         <v>46</v>
       </c>
       <c r="B13" t="n">
-        <v>2269</v>
+        <v>2345</v>
       </c>
       <c r="C13" t="n">
-        <v>1165</v>
+        <v>1204</v>
       </c>
       <c r="E13" t="n">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="F13" t="n">
-        <v>328.1</v>
+        <v>351.7</v>
       </c>
     </row>
     <row r="14">
@@ -7106,16 +7129,16 @@
         <v>47</v>
       </c>
       <c r="B14" t="n">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="C14" t="n">
-        <v>1076.1</v>
+        <v>1141.3</v>
       </c>
       <c r="E14" t="n">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F14" t="n">
-        <v>685.3</v>
+        <v>714</v>
       </c>
     </row>
     <row r="15">
@@ -7123,16 +7146,16 @@
         <v>48</v>
       </c>
       <c r="B15" t="n">
-        <v>6517</v>
+        <v>7132</v>
       </c>
       <c r="C15" t="n">
-        <v>2044.8</v>
+        <v>2237.7</v>
       </c>
       <c r="E15" t="n">
-        <v>3462</v>
+        <v>3946</v>
       </c>
       <c r="F15" t="n">
-        <v>1086.2</v>
+        <v>1238.1</v>
       </c>
     </row>
     <row r="16">
@@ -7140,16 +7163,16 @@
         <v>49</v>
       </c>
       <c r="B16" t="n">
-        <v>16451</v>
+        <v>17216</v>
       </c>
       <c r="C16" t="n">
-        <v>3293.6</v>
+        <v>3446.8</v>
       </c>
       <c r="E16" t="n">
-        <v>6543</v>
+        <v>7029</v>
       </c>
       <c r="F16" t="n">
-        <v>1310</v>
+        <v>1407.3</v>
       </c>
     </row>
     <row r="17">
@@ -7157,16 +7180,16 @@
         <v>50</v>
       </c>
       <c r="B17" t="n">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="C17" t="n">
-        <v>896</v>
+        <v>933.1</v>
       </c>
       <c r="E17" t="n">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F17" t="n">
-        <v>373.7</v>
+        <v>376.2</v>
       </c>
     </row>
     <row r="18">
@@ -7174,16 +7197,16 @@
         <v>51</v>
       </c>
       <c r="B18" t="n">
-        <v>2082</v>
+        <v>2132</v>
       </c>
       <c r="C18" t="n">
-        <v>1049.5</v>
+        <v>1074.7</v>
       </c>
       <c r="E18" t="n">
-        <v>803</v>
+        <v>817</v>
       </c>
       <c r="F18" t="n">
-        <v>404.8</v>
+        <v>411.8</v>
       </c>
     </row>
     <row r="19">
@@ -7191,16 +7214,16 @@
         <v>52</v>
       </c>
       <c r="B19" t="n">
-        <v>1440</v>
+        <v>1542</v>
       </c>
       <c r="C19" t="n">
-        <v>1961.3</v>
+        <v>2100.3</v>
       </c>
       <c r="E19" t="n">
-        <v>929</v>
+        <v>959</v>
       </c>
       <c r="F19" t="n">
-        <v>1265.3</v>
+        <v>1306.2</v>
       </c>
     </row>
     <row r="20">
@@ -7208,16 +7231,16 @@
         <v>53</v>
       </c>
       <c r="B20" t="n">
-        <v>3348</v>
+        <v>3592</v>
       </c>
       <c r="C20" t="n">
-        <v>817.5</v>
+        <v>877</v>
       </c>
       <c r="E20" t="n">
-        <v>1848</v>
+        <v>2015</v>
       </c>
       <c r="F20" t="n">
-        <v>451.2</v>
+        <v>492</v>
       </c>
     </row>
     <row r="21">
@@ -7225,16 +7248,16 @@
         <v>54</v>
       </c>
       <c r="B21" t="n">
-        <v>3102</v>
+        <v>3238</v>
       </c>
       <c r="C21" t="n">
-        <v>1754</v>
+        <v>1830.9</v>
       </c>
       <c r="E21" t="n">
-        <v>1645</v>
+        <v>1722</v>
       </c>
       <c r="F21" t="n">
-        <v>930.2</v>
+        <v>973.7</v>
       </c>
     </row>
     <row r="22">
@@ -7242,16 +7265,16 @@
         <v>55</v>
       </c>
       <c r="B22" t="n">
-        <v>352</v>
+        <v>371</v>
       </c>
       <c r="C22" t="n">
-        <v>814.4</v>
+        <v>858.3</v>
       </c>
       <c r="E22" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F22" t="n">
-        <v>347</v>
+        <v>349.4</v>
       </c>
     </row>
     <row r="23">
@@ -7259,16 +7282,16 @@
         <v>56</v>
       </c>
       <c r="B23" t="n">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="C23" t="n">
-        <v>845.6</v>
+        <v>909.1</v>
       </c>
       <c r="E23" t="n">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="F23" t="n">
-        <v>414.9</v>
+        <v>446.6</v>
       </c>
     </row>
     <row r="24">
@@ -7276,16 +7299,16 @@
         <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>5212</v>
+        <v>5533</v>
       </c>
       <c r="C24" t="n">
-        <v>1026.6</v>
+        <v>1089.8</v>
       </c>
       <c r="E24" t="n">
-        <v>2994</v>
+        <v>3127</v>
       </c>
       <c r="F24" t="n">
-        <v>589.7</v>
+        <v>615.9</v>
       </c>
     </row>
     <row r="25">
@@ -7293,16 +7316,16 @@
         <v>58</v>
       </c>
       <c r="B25" t="n">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C25" t="n">
-        <v>652.5</v>
+        <v>654.9</v>
       </c>
       <c r="E25" t="n">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F25" t="n">
-        <v>346.4</v>
+        <v>336.6</v>
       </c>
     </row>
     <row r="26">
@@ -7310,16 +7333,16 @@
         <v>59</v>
       </c>
       <c r="B26" t="n">
-        <v>1850</v>
+        <v>1959</v>
       </c>
       <c r="C26" t="n">
-        <v>677.2</v>
+        <v>717.1</v>
       </c>
       <c r="E26" t="n">
-        <v>833</v>
+        <v>906</v>
       </c>
       <c r="F26" t="n">
-        <v>304.9</v>
+        <v>331.6</v>
       </c>
     </row>
     <row r="27">
@@ -7327,16 +7350,16 @@
         <v>60</v>
       </c>
       <c r="B27" t="n">
-        <v>2551</v>
+        <v>2642</v>
       </c>
       <c r="C27" t="n">
-        <v>1602.7</v>
+        <v>1659.9</v>
       </c>
       <c r="E27" t="n">
-        <v>1554</v>
+        <v>1523</v>
       </c>
       <c r="F27" t="n">
-        <v>976.3</v>
+        <v>956.9</v>
       </c>
     </row>
     <row r="28">
@@ -7344,16 +7367,16 @@
         <v>61</v>
       </c>
       <c r="B28" t="n">
-        <v>2034</v>
+        <v>2092</v>
       </c>
       <c r="C28" t="n">
-        <v>735.7</v>
+        <v>756.7</v>
       </c>
       <c r="E28" t="n">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="F28" t="n">
-        <v>415.6</v>
+        <v>419.6</v>
       </c>
     </row>
     <row r="29">
@@ -7361,16 +7384,16 @@
         <v>62</v>
       </c>
       <c r="B29" t="n">
-        <v>5914</v>
+        <v>6131</v>
       </c>
       <c r="C29" t="n">
-        <v>1673.7</v>
+        <v>1735.1</v>
       </c>
       <c r="E29" t="n">
-        <v>2035</v>
+        <v>2168</v>
       </c>
       <c r="F29" t="n">
-        <v>575.9</v>
+        <v>613.6</v>
       </c>
     </row>
     <row r="30">
@@ -7378,16 +7401,16 @@
         <v>63</v>
       </c>
       <c r="B30" t="n">
-        <v>331</v>
+        <v>342</v>
       </c>
       <c r="C30" t="n">
-        <v>908.5</v>
+        <v>938.7</v>
       </c>
       <c r="E30" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F30" t="n">
-        <v>406.2</v>
+        <v>411.7</v>
       </c>
     </row>
     <row r="31">
@@ -7395,16 +7418,16 @@
         <v>64</v>
       </c>
       <c r="B31" t="n">
-        <v>19628</v>
+        <v>20545</v>
       </c>
       <c r="C31" t="n">
-        <v>2456.1</v>
+        <v>2570.9</v>
       </c>
       <c r="E31" t="n">
-        <v>7308</v>
+        <v>7967</v>
       </c>
       <c r="F31" t="n">
-        <v>914.5</v>
+        <v>996.9</v>
       </c>
     </row>
     <row r="32">
@@ -7412,16 +7435,16 @@
         <v>65</v>
       </c>
       <c r="B32" t="n">
-        <v>9057</v>
+        <v>9659</v>
       </c>
       <c r="C32" t="n">
-        <v>2633.2</v>
+        <v>2808.2</v>
       </c>
       <c r="E32" t="n">
-        <v>5707</v>
+        <v>6080</v>
       </c>
       <c r="F32" t="n">
-        <v>1659.2</v>
+        <v>1767.7</v>
       </c>
     </row>
     <row r="33">
@@ -7429,16 +7452,16 @@
         <v>66</v>
       </c>
       <c r="B33" t="n">
-        <v>1353</v>
+        <v>1422</v>
       </c>
       <c r="C33" t="n">
-        <v>1066.7</v>
+        <v>1121.1</v>
       </c>
       <c r="E33" t="n">
-        <v>718</v>
+        <v>757</v>
       </c>
       <c r="F33" t="n">
-        <v>566.1</v>
+        <v>596.8</v>
       </c>
     </row>
     <row r="34">
@@ -7446,16 +7469,16 @@
         <v>67</v>
       </c>
       <c r="B34" t="n">
-        <v>17787</v>
+        <v>18295</v>
       </c>
       <c r="C34" t="n">
-        <v>1169.5</v>
+        <v>1202.9</v>
       </c>
       <c r="E34" t="n">
-        <v>7812</v>
+        <v>7972</v>
       </c>
       <c r="F34" t="n">
-        <v>513.6</v>
+        <v>524.1</v>
       </c>
     </row>
     <row r="35">
@@ -7463,16 +7486,16 @@
         <v>68</v>
       </c>
       <c r="B35" t="n">
-        <v>121093</v>
+        <v>127042</v>
       </c>
       <c r="C35" t="n">
-        <v>1410.9</v>
+        <v>1480.2</v>
       </c>
       <c r="E35" t="n">
-        <v>56132</v>
+        <v>59510</v>
       </c>
       <c r="F35" t="n">
-        <v>654</v>
+        <v>693.4</v>
       </c>
     </row>
     <row r="37">
@@ -7492,7 +7515,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -7554,22 +7577,22 @@
         <v>27</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F8" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G8" t="n">
         <v>6</v>
       </c>
       <c r="H8" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="9">
@@ -7603,25 +7626,25 @@
         <v>27</v>
       </c>
       <c r="B10" t="n">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" t="n">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F10" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="G10" t="n">
-        <v>25</v>
+        <v>24.8</v>
       </c>
       <c r="H10" t="n">
-        <v>13</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="11">
@@ -7629,25 +7652,25 @@
         <v>28</v>
       </c>
       <c r="B11" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C11" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F11" t="n">
-        <v>19.3</v>
+        <v>19.6</v>
       </c>
       <c r="G11" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="H11" t="n">
-        <v>17.9</v>
+        <v>18.2</v>
       </c>
     </row>
     <row r="12">
@@ -7655,25 +7678,25 @@
         <v>29</v>
       </c>
       <c r="B12" t="n">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C12" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="F12" t="n">
-        <v>35.5</v>
+        <v>36.3</v>
       </c>
       <c r="G12" t="n">
-        <v>42.2</v>
+        <v>42.6</v>
       </c>
       <c r="H12" t="n">
-        <v>28.8</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="13">
@@ -7681,25 +7704,25 @@
         <v>30</v>
       </c>
       <c r="B13" t="n">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="C13" t="n">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>845</v>
+        <v>868</v>
       </c>
       <c r="F13" t="n">
-        <v>65.6</v>
+        <v>67.4</v>
       </c>
       <c r="G13" t="n">
-        <v>81.6</v>
+        <v>83.9</v>
       </c>
       <c r="H13" t="n">
-        <v>49.3</v>
+        <v>50.6</v>
       </c>
     </row>
     <row r="14">
@@ -7707,25 +7730,25 @@
         <v>31</v>
       </c>
       <c r="B14" t="n">
-        <v>723</v>
+        <v>737</v>
       </c>
       <c r="C14" t="n">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="D14" t="n">
         <v>2</v>
       </c>
       <c r="E14" t="n">
-        <v>1083</v>
+        <v>1103</v>
       </c>
       <c r="F14" t="n">
-        <v>115.7</v>
+        <v>117.8</v>
       </c>
       <c r="G14" t="n">
-        <v>157.2</v>
+        <v>160.2</v>
       </c>
       <c r="H14" t="n">
-        <v>75.2</v>
+        <v>76.4</v>
       </c>
     </row>
     <row r="15">
@@ -7733,25 +7756,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>874</v>
+        <v>902</v>
       </c>
       <c r="C15" t="n">
-        <v>574</v>
+        <v>602</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1448</v>
+        <v>1504</v>
       </c>
       <c r="F15" t="n">
-        <v>204.3</v>
+        <v>212.2</v>
       </c>
       <c r="G15" t="n">
-        <v>265</v>
+        <v>273.5</v>
       </c>
       <c r="H15" t="n">
-        <v>151.4</v>
+        <v>158.8</v>
       </c>
     </row>
     <row r="16">
@@ -7759,25 +7782,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>911</v>
+        <v>928</v>
       </c>
       <c r="C16" t="n">
-        <v>827</v>
+        <v>863</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1738</v>
+        <v>1791</v>
       </c>
       <c r="F16" t="n">
-        <v>390.5</v>
+        <v>402.4</v>
       </c>
       <c r="G16" t="n">
-        <v>539.8</v>
+        <v>549.9</v>
       </c>
       <c r="H16" t="n">
-        <v>299.3</v>
+        <v>312.3</v>
       </c>
     </row>
     <row r="17">
@@ -7817,7 +7840,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="20.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="20.71" hidden="0" customWidth="1"/>
@@ -8030,25 +8053,25 @@
         <v>32</v>
       </c>
       <c r="B15" t="n">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C15" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="F15" t="n">
-        <v>53.5</v>
+        <v>54.2</v>
       </c>
       <c r="G15" t="n">
-        <v>76.4</v>
+        <v>77.3</v>
       </c>
       <c r="H15" t="n">
-        <v>33.5</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16">
@@ -8056,25 +8079,25 @@
         <v>33</v>
       </c>
       <c r="B16" t="n">
-        <v>699</v>
+        <v>705</v>
       </c>
       <c r="C16" t="n">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1336</v>
+        <v>1347</v>
       </c>
       <c r="F16" t="n">
-        <v>300.2</v>
+        <v>302.6</v>
       </c>
       <c r="G16" t="n">
-        <v>414.2</v>
+        <v>417.7</v>
       </c>
       <c r="H16" t="n">
-        <v>230.5</v>
+        <v>232.3</v>
       </c>
     </row>
     <row r="18">
@@ -8094,7 +8117,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="10.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
